--- a/English/Super Memory/quick_reading.xlsx
+++ b/English/Super Memory/quick_reading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\笔记库\StudyNotes\English\Super Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC28A07-2FC5-48A1-8569-66126AE964BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CBEFF5-F57E-4EFC-AE46-3723B4DA9ECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="1965" windowWidth="21555" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,12 +132,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -169,7 +166,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -180,6 +177,60 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$20</c:f>
@@ -201,6 +252,18 @@
                 <c:pt idx="4">
                   <c:v>1192</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1333.3330000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>944.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1298.33</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -212,8 +275,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -230,14 +294,14 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -253,10 +317,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -284,7 +345,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -312,10 +373,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -354,7 +412,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -422,33 +480,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -463,7 +515,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -471,7 +523,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -479,17 +531,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -498,9 +547,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -523,45 +571,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -570,36 +608,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -615,21 +649,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -663,64 +692,156 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -728,102 +849,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -831,17 +856,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -850,12 +875,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -864,14 +886,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -880,10 +902,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -892,7 +911,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -913,10 +932,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -925,14 +941,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1236,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1275,6 +1285,26 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1333.3330000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>944.33299999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1298.33</v>
       </c>
     </row>
   </sheetData>

--- a/English/Super Memory/quick_reading.xlsx
+++ b/English/Super Memory/quick_reading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\笔记库\StudyNotes\English\Super Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CBEFF5-F57E-4EFC-AE46-3723B4DA9ECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C060F4E-44B6-4765-BC2E-308B1A94EE0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,11 +41,20 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -74,12 +83,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -263,6 +275,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1298.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1246.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1307,6 +1325,16 @@
         <v>1298.33</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1246.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>1019</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/English/Super Memory/quick_reading.xlsx
+++ b/English/Super Memory/quick_reading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\笔记库\StudyNotes\English\Super Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C060F4E-44B6-4765-BC2E-308B1A94EE0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16742D30-32D6-4B98-A166-4209955022C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,6 +282,9 @@
                 <c:pt idx="10">
                   <c:v>1019</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1264,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1335,6 +1338,11 @@
         <v>1019</v>
       </c>
     </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1343,6 +1351,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{6375797A-3BD3-47A1-96C5-CEDCB2B7B5F7}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!A2:A20</xm:f>
+              <xm:sqref>D21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{19039077-73A1-47F7-9C59-10EE14728935}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -1359,22 +1383,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{6375797A-3BD3-47A1-96C5-CEDCB2B7B5F7}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!A2:A20</xm:f>
-              <xm:sqref>D21</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/English/Super Memory/quick_reading.xlsx
+++ b/English/Super Memory/quick_reading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\笔记库\StudyNotes\English\Super Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16742D30-32D6-4B98-A166-4209955022C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064C8F56-B509-41B3-8D89-543B7BB8D687}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>字数/分钟</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机(50对)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机(100个)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫殿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
   </si>
 </sst>
 </file>
@@ -83,7 +129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -92,6 +138,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -161,17 +216,20 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>Sheet1!$A$1:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>速度</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>字数/分钟</c:v>
                 </c:pt>
               </c:strCache>
@@ -245,44 +303,14 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>975.3</c:v>
+                  <c:v>1019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>972</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1137.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1240</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1333.3330000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>944.33299999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1298.33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1246.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -291,7 +319,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A30-4FE3-B491-15A12E17397A}"/>
+              <c16:uniqueId val="{00000000-40F0-49AC-B3A2-E89D58298660}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -305,11 +333,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="663532656"/>
-        <c:axId val="663533968"/>
+        <c:axId val="673238328"/>
+        <c:axId val="673230784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="663532656"/>
+        <c:axId val="673238328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,7 +376,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663533968"/>
+        <c:crossAx val="673230784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -356,7 +384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663533968"/>
+        <c:axId val="673230784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,7 +432,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663532656"/>
+        <c:crossAx val="673238328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -416,6 +444,484 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>出图、关联、联想、宫殿</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>出图</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>顺序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB24-4634-B90A-8A9C8DD6EBED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>出图</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>随机(100个)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB24-4634-B90A-8A9C8DD6EBED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>关联</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>随机(50对)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EB24-4634-B90A-8A9C8DD6EBED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="723960032"/>
+        <c:axId val="723961016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="723960032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723961016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="723961016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723960032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -500,6 +1006,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
@@ -968,27 +1514,495 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>195260</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>962024</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3232869-9DB8-4B18-8A65-F38D12138B97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6BDD28-66EC-43CD-9F60-4657C73C053E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,6 +2015,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274BC458-6B1D-4C58-AB97-6FA7143718C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1267,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1278,113 +2328,409 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>975.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1137.5999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>1333.3330000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>944.33299999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>1298.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>1246.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>1019</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="B4" s="3">
+        <v>192</v>
+      </c>
+      <c r="C4" s="3">
+        <v>201</v>
+      </c>
+      <c r="D4" s="3">
+        <v>608</v>
+      </c>
+      <c r="E4" s="3">
+        <v>276</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>1000</v>
       </c>
+      <c r="B5" s="3">
+        <v>196</v>
+      </c>
+      <c r="C5" s="3">
+        <v>215</v>
+      </c>
+      <c r="D5" s="3">
+        <v>343</v>
+      </c>
+      <c r="E5" s="3">
+        <v>213</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
+        <v>251</v>
+      </c>
+      <c r="C6" s="3">
+        <v>228</v>
+      </c>
+      <c r="D6" s="3">
+        <v>343</v>
+      </c>
+      <c r="E6" s="3">
+        <v>127</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
+        <v>179</v>
+      </c>
+      <c r="C7" s="3">
+        <v>185</v>
+      </c>
+      <c r="D7" s="3">
+        <v>392</v>
+      </c>
+      <c r="E7" s="3">
+        <v>75</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
+        <v>234</v>
+      </c>
+      <c r="C8" s="3">
+        <v>252</v>
+      </c>
+      <c r="D8" s="3">
+        <v>393</v>
+      </c>
+      <c r="E8" s="3">
+        <v>149</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
+        <v>167</v>
+      </c>
+      <c r="C9" s="3">
+        <v>213</v>
+      </c>
+      <c r="D9" s="3">
+        <v>291</v>
+      </c>
+      <c r="E9" s="3">
+        <v>209</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
+        <v>154</v>
+      </c>
+      <c r="C10" s="3">
+        <v>234</v>
+      </c>
+      <c r="D10" s="3">
+        <v>266</v>
+      </c>
+      <c r="E10" s="3">
+        <v>140</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>149</v>
+      </c>
+      <c r="C11" s="3">
+        <v>214</v>
+      </c>
+      <c r="D11" s="3">
+        <v>230</v>
+      </c>
+      <c r="E11" s="3">
+        <v>140</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
-      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{6375797A-3BD3-47A1-96C5-CEDCB2B7B5F7}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!A2:A20</xm:f>
-              <xm:sqref>D21</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{19039077-73A1-47F7-9C59-10EE14728935}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!A2:A30</xm:f>
-              <xm:sqref>D18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-      </x14:sparklineGroups>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/English/Super Memory/quick_reading.xlsx
+++ b/English/Super Memory/quick_reading.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\笔记库\StudyNotes\English\Super Memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064C8F56-B509-41B3-8D89-543B7BB8D687}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C10047-35B5-4DBC-A25C-871FDA06E306}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
   <si>
     <t>字数/分钟</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -578,7 +585,7 @@
           <c:spPr>
             <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -589,10 +596,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$15</c:f>
+              <c:f>Sheet1!$B$3:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -619,6 +626,36 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,7 +687,7 @@
           <c:spPr>
             <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -661,10 +698,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$15</c:f>
+              <c:f>Sheet1!$C$3:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -691,6 +728,36 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,7 +789,7 @@
           <c:spPr>
             <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -733,10 +800,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$15</c:f>
+              <c:f>Sheet1!$D$3:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -763,6 +830,36 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,13 +1104,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2320,7 +2414,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2518,83 +2612,147 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3">
+        <v>155</v>
+      </c>
+      <c r="C12" s="3">
+        <v>159</v>
+      </c>
+      <c r="D12" s="3">
+        <v>284</v>
+      </c>
+      <c r="E12" s="3">
+        <v>227</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3">
+        <v>135</v>
+      </c>
+      <c r="C13" s="3">
+        <v>145</v>
+      </c>
+      <c r="D13" s="3">
+        <v>226</v>
+      </c>
+      <c r="E13" s="3">
+        <v>142</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3">
+        <v>185</v>
+      </c>
+      <c r="C14" s="3">
+        <v>156</v>
+      </c>
+      <c r="D14" s="3">
+        <v>247</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3">
+        <v>192</v>
+      </c>
+      <c r="C15" s="3">
+        <v>199</v>
+      </c>
+      <c r="D15" s="3">
+        <v>223</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3">
+        <v>184</v>
+      </c>
+      <c r="C16" s="3">
+        <v>190</v>
+      </c>
+      <c r="D16" s="3">
+        <v>194</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3">
+        <v>141</v>
+      </c>
+      <c r="C17" s="3">
+        <v>185</v>
+      </c>
+      <c r="D17" s="3">
+        <v>210</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3">
+        <v>183</v>
+      </c>
+      <c r="C18" s="3">
+        <v>169</v>
+      </c>
+      <c r="D18" s="3">
+        <v>230</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3">
+        <v>177</v>
+      </c>
+      <c r="C19" s="3">
+        <v>167</v>
+      </c>
+      <c r="D19" s="3">
+        <v>223</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3">
+        <v>175</v>
+      </c>
+      <c r="C20" s="3">
+        <v>130</v>
+      </c>
+      <c r="D20" s="3">
+        <v>201</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="3">
+        <v>173</v>
+      </c>
+      <c r="C21" s="3">
+        <v>159</v>
+      </c>
+      <c r="D21" s="3">
+        <v>192</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
